--- a/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
+++ b/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2A23BA-FA1B-4249-94C9-B6ED8287E71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926DE012-4CE6-4282-AEA3-13F7A5665287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D713FEDB-616F-4664-986D-CB84BBC0D824}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12270" xr2:uid="{D713FEDB-616F-4664-986D-CB84BBC0D824}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -325,9 +325,6 @@
     <t>Only LB Ginger - Brazil</t>
   </si>
   <si>
-    <t>lb</t>
-  </si>
-  <si>
     <t>Snipped Gr. Beans 10lb. - USA</t>
   </si>
   <si>
@@ -557,6 +554,9 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>1 lb</t>
   </si>
 </sst>
 </file>
@@ -952,7 +952,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,6 +961,7 @@
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -977,10 +978,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -997,7 +998,7 @@
         <v>16.850000000000001</v>
       </c>
       <c r="G2" s="6">
-        <v>45690</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1041,13 +1042,16 @@
       <c r="D5" s="1">
         <v>21.5</v>
       </c>
+      <c r="E5">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>81</v>
@@ -1123,9 +1127,6 @@
         <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="E11">
         <v>26.5</v>
       </c>
     </row>
@@ -1140,9 +1141,6 @@
         <v>87</v>
       </c>
       <c r="D12" s="1">
-        <v>35.85</v>
-      </c>
-      <c r="E12">
         <v>33.85</v>
       </c>
     </row>
@@ -1157,9 +1155,6 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>15.85</v>
-      </c>
-      <c r="E13">
         <v>14.5</v>
       </c>
     </row>
@@ -1185,7 +1180,7 @@
         <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -1196,16 +1191,16 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D16" s="1">
-        <v>42.85</v>
+        <v>39.85</v>
       </c>
       <c r="E16">
-        <v>39.85</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1213,10 +1208,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D17" s="1">
         <v>29.85</v>
@@ -1227,10 +1222,10 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D18" s="1">
         <v>22.5</v>
@@ -1241,7 +1236,7 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" s="1">
         <v>30</v>
@@ -1255,10 +1250,10 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D20" s="1">
         <v>34.5</v>
@@ -1269,10 +1264,10 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D21" s="1">
         <v>22.5</v>
@@ -1283,10 +1278,10 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D22" s="1">
         <v>24</v>
@@ -1297,10 +1292,10 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="1">
         <v>26.85</v>
@@ -1311,13 +1306,16 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D24" s="1">
         <v>22.5</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1325,16 +1323,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D25" s="1">
-        <v>23.85</v>
+        <v>25.85</v>
       </c>
       <c r="E25">
-        <v>25.85</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1342,10 +1340,10 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="D26" s="1">
         <v>20.85</v>
@@ -1356,10 +1354,10 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D27" s="1">
         <v>13.85</v>
@@ -1370,10 +1368,10 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D28" s="1">
         <v>24</v>
@@ -1384,10 +1382,10 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D29" s="1">
         <v>12.5</v>
@@ -1398,10 +1396,10 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D30" s="1">
         <v>0.75</v>
@@ -1412,10 +1410,10 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" s="1">
         <v>3.75</v>
@@ -1426,49 +1424,52 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="D33" s="1">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D34" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>85</v>
@@ -1477,138 +1478,147 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D36" s="1">
         <v>42.85</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>39.85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D37" s="1">
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D38" s="1">
         <v>42.85</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D39" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D40" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D41" s="1">
         <v>17.25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="1">
         <v>21.75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1">
         <v>22.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D44" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>81</v>
@@ -1617,26 +1627,26 @@
         <v>24.85</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>83</v>
@@ -1645,18 +1655,21 @@
         <v>24.85</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="D48" s="1">
         <v>59.85</v>
+      </c>
+      <c r="E48">
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1664,15 +1677,12 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D49" s="1">
-        <v>29.85</v>
-      </c>
-      <c r="E49">
         <v>24.5</v>
       </c>
     </row>
@@ -1681,10 +1691,10 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D50" s="1">
         <v>36.85</v>
@@ -1695,13 +1705,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D51" s="1">
         <v>22.85</v>
+      </c>
+      <c r="E51">
+        <v>21.5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1709,13 +1722,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D52" s="1">
         <v>22.85</v>
+      </c>
+      <c r="E52">
+        <v>21.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1723,10 +1739,10 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="D53" s="1">
         <v>2.5</v>
@@ -1737,13 +1753,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D54" s="1">
         <v>22.5</v>
+      </c>
+      <c r="E54">
+        <v>19.5</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1751,10 +1770,10 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D55" s="1">
         <v>22.5</v>
@@ -1765,7 +1784,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>87</v>
@@ -1779,7 +1798,7 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>83</v>
@@ -1793,7 +1812,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>83</v>
@@ -1807,7 +1826,7 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>83</v>
@@ -1821,10 +1840,10 @@
         <v>18</v>
       </c>
       <c r="B60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D60" s="1">
         <v>2.5</v>
@@ -1835,7 +1854,7 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>77</v>
@@ -1849,13 +1868,16 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="1">
         <v>22.85</v>
+      </c>
+      <c r="E62">
+        <v>18.5</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1863,10 +1885,10 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D63" s="1">
         <v>32.85</v>
@@ -1877,7 +1899,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>81</v>
@@ -1891,7 +1913,7 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>85</v>

--- a/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
+++ b/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrusso\Desktop\ITHACA BAKERY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926DE012-4CE6-4282-AEA3-13F7A5665287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94BD200-858B-4418-8E39-4FD13F83C82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12270" xr2:uid="{D713FEDB-616F-4664-986D-CB84BBC0D824}"/>
+    <workbookView xWindow="2340" yWindow="555" windowWidth="14595" windowHeight="15045" xr2:uid="{D713FEDB-616F-4664-986D-CB84BBC0D824}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="200">
   <si>
     <t>Item Name</t>
   </si>
@@ -63,6 +63,9 @@
     <t>Carrots (25 lb)</t>
   </si>
   <si>
+    <t>Carrots (50 lb)</t>
+  </si>
+  <si>
     <t>Cauliflower</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>Ginger Root</t>
   </si>
   <si>
+    <t>Green Beans</t>
+  </si>
+  <si>
     <t>Green Beans (Trimmed &amp; Fresh)</t>
   </si>
   <si>
@@ -114,6 +120,9 @@
     <t>Cucumbers (English)</t>
   </si>
   <si>
+    <t>Eggs (Shell-On)</t>
+  </si>
+  <si>
     <t>Garlic (Peeled)</t>
   </si>
   <si>
@@ -138,9 +147,18 @@
     <t>Greens - Green Leaf Lettuce (Fillet)</t>
   </si>
   <si>
+    <t>Greens - Green Leaf Lettuce (Washed &amp; Trimmed)</t>
+  </si>
+  <si>
     <t>Greens - Kale</t>
   </si>
   <si>
+    <t>Greens - Kale (Cleaned)</t>
+  </si>
+  <si>
+    <t>Greens - Rapini (Broccoli Rabe)</t>
+  </si>
+  <si>
     <t>Greens - Romaine (Hearts)</t>
   </si>
   <si>
@@ -156,6 +174,9 @@
     <t>Greens - Spring Mix</t>
   </si>
   <si>
+    <t>Greens - Swiss Chard</t>
+  </si>
+  <si>
     <t>Herb - Cilantro</t>
   </si>
   <si>
@@ -165,6 +186,9 @@
     <t>Herb - Parsley</t>
   </si>
   <si>
+    <t>Herb - Parsley (Washed &amp; Trimmed)</t>
+  </si>
+  <si>
     <t>Herbs - Basil (Cleaned)</t>
   </si>
   <si>
@@ -174,6 +198,9 @@
     <t>Melon - Honeydew</t>
   </si>
   <si>
+    <t>Melon - Watermelon</t>
+  </si>
+  <si>
     <t>Mushroom - Button (Whole)</t>
   </si>
   <si>
@@ -192,12 +219,18 @@
     <t>Onion - Red</t>
   </si>
   <si>
+    <t>Onion - Red (Peeled)</t>
+  </si>
+  <si>
     <t>Onion - Shallot</t>
   </si>
   <si>
     <t>Onion - Spanish</t>
   </si>
   <si>
+    <t>Onion - Spanish (Peeled)</t>
+  </si>
+  <si>
     <t>Pears</t>
   </si>
   <si>
@@ -219,9 +252,18 @@
     <t>Pepper - Red Bell (11 LB)</t>
   </si>
   <si>
+    <t>Pepper - Red Bell (25 LB)</t>
+  </si>
+  <si>
+    <t>Pepper - Red Bell (5 LB)</t>
+  </si>
+  <si>
     <t>Pomegranate (Whole)</t>
   </si>
   <si>
+    <t>Pomegranate Seeds (Frozen)</t>
+  </si>
+  <si>
     <t>Potato - Chef</t>
   </si>
   <si>
@@ -231,6 +273,9 @@
     <t>Potato - Russet</t>
   </si>
   <si>
+    <t>Squash - Acorn</t>
+  </si>
+  <si>
     <t>Squash - Yellow</t>
   </si>
   <si>
@@ -301,6 +346,12 @@
   </si>
   <si>
     <t>Gourmet Cuke 12 ct - CAN</t>
+  </si>
+  <si>
+    <t>15 DOZEN XL EGG - USA</t>
+  </si>
+  <si>
+    <t>15 dz</t>
   </si>
   <si>
     <t>5LB Peeled Garlic</t>
@@ -325,6 +376,12 @@
     <t>Only LB Ginger - Brazil</t>
   </si>
   <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>Green Bean - USA</t>
+  </si>
+  <si>
     <t>Snipped Gr. Beans 10lb. - USA</t>
   </si>
   <si>
@@ -364,6 +421,12 @@
     <t>16#</t>
   </si>
   <si>
+    <t>Chopped Kale - 4/1lb - usa</t>
+  </si>
+  <si>
+    <t>4/1#</t>
+  </si>
+  <si>
     <t>Romaine  Heart 12/3 ct - USA</t>
   </si>
   <si>
@@ -397,9 +460,15 @@
     <t>Oregano - Only Bunch</t>
   </si>
   <si>
+    <t>bu</t>
+  </si>
+  <si>
     <t>Bunches Curly Parsley - Mex</t>
   </si>
   <si>
+    <t>Parsley - Washed 4/1LB - USA</t>
+  </si>
+  <si>
     <t>Only Basil - LB</t>
   </si>
   <si>
@@ -436,6 +505,12 @@
     <t>5 ct</t>
   </si>
   <si>
+    <t>Only Watermelon - USA</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
     <t>10 lb.  Mushroom - USA</t>
   </si>
   <si>
@@ -463,9 +538,15 @@
     <t>25 lb.  Red  Onions - USA</t>
   </si>
   <si>
+    <t>Peeled Red Onions - USA</t>
+  </si>
+  <si>
     <t>50 lb.  Spanish Onions - USA</t>
   </si>
   <si>
+    <t>Peeled Yellow Onions - USA</t>
+  </si>
+  <si>
     <t>Snow Pea 10# - Guat</t>
   </si>
   <si>
@@ -484,6 +565,9 @@
     <t>11#</t>
   </si>
   <si>
+    <t>Red Pepper- 25LB USA</t>
+  </si>
+  <si>
     <t>Jalapeno Pepper-Bushel-USA</t>
   </si>
   <si>
@@ -535,9 +619,18 @@
     <t>Bok Choy 30lb - can</t>
   </si>
   <si>
+    <t>Rapini - AndyBoy - USA</t>
+  </si>
+  <si>
+    <t>Green Swiss Chard - USA</t>
+  </si>
+  <si>
     <t>Peeled Shallot</t>
   </si>
   <si>
+    <t>Acorn  Squash - mex</t>
+  </si>
+  <si>
     <t>Green Squash  - USA</t>
   </si>
   <si>
@@ -554,9 +647,6 @@
   </si>
   <si>
     <t>DATE</t>
-  </si>
-  <si>
-    <t>1 lb</t>
   </si>
 </sst>
 </file>
@@ -653,9 +743,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -693,7 +783,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -799,7 +889,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -941,7 +1031,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -949,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BACE606-7584-4560-A0E4-C4A59DA41F44}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,10 +1068,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -989,27 +1079,27 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>16.850000000000001</v>
       </c>
       <c r="G2" s="6">
-        <v>45698</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1">
         <v>39.5</v>
@@ -1020,10 +1110,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1">
         <v>32.5</v>
@@ -1034,27 +1124,24 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1">
-        <v>21.5</v>
-      </c>
-      <c r="E5">
         <v>22.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1">
         <v>18.850000000000001</v>
@@ -1062,27 +1149,27 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1">
-        <v>22.85</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1">
         <v>35.85</v>
@@ -1093,13 +1180,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1107,10 +1194,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1">
         <v>14.85</v>
@@ -1120,14 +1207,8 @@
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="1">
-        <v>26.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1135,72 +1216,69 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1">
-        <v>33.85</v>
+        <v>22.5</v>
+      </c>
+      <c r="E12">
+        <v>25.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1">
-        <v>14.5</v>
+        <v>28.85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1">
-        <v>22.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1">
-        <v>39.85</v>
-      </c>
-      <c r="E16">
-        <v>36.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1208,55 +1286,52 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D17" s="1">
-        <v>29.85</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="D18" s="1">
-        <v>22.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="1">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1">
-        <v>34.5</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1264,10 +1339,10 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D21" s="1">
         <v>22.5</v>
@@ -1278,13 +1353,13 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>189</v>
+      </c>
+      <c r="C22" s="1">
+        <v>30</v>
       </c>
       <c r="D22" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1292,13 +1367,13 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D23" s="1">
-        <v>26.85</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1306,16 +1381,13 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D24" s="1">
         <v>22.5</v>
-      </c>
-      <c r="E24">
-        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1323,16 +1395,13 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D25" s="1">
-        <v>25.85</v>
-      </c>
-      <c r="E25">
-        <v>26.85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1340,41 +1409,32 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D26" s="1">
-        <v>20.85</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="1">
-        <v>13.85</v>
-      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D28" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1382,13 +1442,10 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="1">
-        <v>12.5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,13 +1453,10 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="D30" s="1">
-        <v>0.75</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1410,13 +1464,16 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D31" s="1">
-        <v>3.75</v>
+        <v>21.5</v>
+      </c>
+      <c r="E31">
+        <v>25.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1424,507 +1481,660 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D32" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="D33" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="E33">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="1">
         <v>12.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="1">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="1">
-        <v>42.85</v>
-      </c>
-      <c r="E36">
-        <v>39.85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="1">
-        <v>19.850000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="1">
-        <v>42.85</v>
-      </c>
-      <c r="E38">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="1">
         <v>42</v>
       </c>
-      <c r="E39">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="1">
-        <v>17.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="1">
-        <v>21.75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="1">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D44" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="D45" s="1">
-        <v>24.85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="D46" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="D47" s="1">
-        <v>24.85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D48" s="1">
-        <v>59.85</v>
-      </c>
-      <c r="E48">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D49" s="1">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>36.85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="D51" s="1">
-        <v>22.85</v>
-      </c>
-      <c r="E51">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="D52" s="1">
-        <v>22.85</v>
-      </c>
-      <c r="E52">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D53" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1">
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="1">
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="1">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="1">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="1">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="1">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" s="1">
         <v>22.5</v>
       </c>
-      <c r="E54">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="1">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" s="1">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="1">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D55" s="1">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="E76">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="E77">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="E78">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="1">
+        <v>19.850000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="1">
-        <v>24.85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="1">
-        <v>24.85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="1">
-        <v>22.85</v>
-      </c>
-      <c r="E62">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D63" s="1">
-        <v>32.85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="1">
-        <v>22.85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="B80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" s="1">
         <v>14.85</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A65">
-    <sortCondition ref="A2:A65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A80">
+    <sortCondition ref="A2:A80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
+++ b/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrusso\Desktop\ITHACA BAKERY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A971423-2A47-47C9-9623-AB25B50FD364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D058E09-2D0D-436D-A851-FDAE4C4E7002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D713FEDB-616F-4664-986D-CB84BBC0D824}"/>
+    <workbookView xWindow="90" yWindow="1020" windowWidth="15660" windowHeight="14310" xr2:uid="{D713FEDB-616F-4664-986D-CB84BBC0D824}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="200">
   <si>
     <t>Item Name</t>
   </si>
@@ -63,6 +63,9 @@
     <t>Carrots (25 lb)</t>
   </si>
   <si>
+    <t>Carrots (50 lb)</t>
+  </si>
+  <si>
     <t>Cauliflower</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>Ginger Root</t>
   </si>
   <si>
+    <t>Green Beans</t>
+  </si>
+  <si>
     <t>Green Beans (Trimmed &amp; Fresh)</t>
   </si>
   <si>
@@ -114,6 +120,9 @@
     <t>Cucumbers (English)</t>
   </si>
   <si>
+    <t>Eggs (Shell-On)</t>
+  </si>
+  <si>
     <t>Garlic (Peeled)</t>
   </si>
   <si>
@@ -138,9 +147,18 @@
     <t>Greens - Green Leaf Lettuce (Fillet)</t>
   </si>
   <si>
+    <t>Greens - Green Leaf Lettuce (Washed &amp; Trimmed)</t>
+  </si>
+  <si>
     <t>Greens - Kale</t>
   </si>
   <si>
+    <t>Greens - Kale (Cleaned)</t>
+  </si>
+  <si>
+    <t>Greens - Rapini (Broccoli Rabe)</t>
+  </si>
+  <si>
     <t>Greens - Romaine (Hearts)</t>
   </si>
   <si>
@@ -156,6 +174,9 @@
     <t>Greens - Spring Mix</t>
   </si>
   <si>
+    <t>Greens - Swiss Chard</t>
+  </si>
+  <si>
     <t>Herb - Cilantro</t>
   </si>
   <si>
@@ -165,6 +186,9 @@
     <t>Herb - Parsley</t>
   </si>
   <si>
+    <t>Herb - Parsley (Washed &amp; Trimmed)</t>
+  </si>
+  <si>
     <t>Herbs - Basil (Cleaned)</t>
   </si>
   <si>
@@ -195,12 +219,18 @@
     <t>Onion - Red</t>
   </si>
   <si>
+    <t>Onion - Red (Peeled)</t>
+  </si>
+  <si>
     <t>Onion - Shallot</t>
   </si>
   <si>
     <t>Onion - Spanish</t>
   </si>
   <si>
+    <t>Onion - Spanish (Peeled)</t>
+  </si>
+  <si>
     <t>Pears</t>
   </si>
   <si>
@@ -222,9 +252,18 @@
     <t>Pepper - Red Bell (11 LB)</t>
   </si>
   <si>
+    <t>Pepper - Red Bell (25 LB)</t>
+  </si>
+  <si>
+    <t>Pepper - Red Bell (5 LB)</t>
+  </si>
+  <si>
     <t>Pomegranate (Whole)</t>
   </si>
   <si>
+    <t>Pomegranate Seeds (Frozen)</t>
+  </si>
+  <si>
     <t>Potato - Chef</t>
   </si>
   <si>
@@ -234,6 +273,9 @@
     <t>Potato - Russet</t>
   </si>
   <si>
+    <t>Squash - Acorn</t>
+  </si>
+  <si>
     <t>Squash - Yellow</t>
   </si>
   <si>
@@ -304,6 +346,12 @@
   </si>
   <si>
     <t>Gourmet Cuke 12 ct - CAN</t>
+  </si>
+  <si>
+    <t>15 DOZEN XL EGG - USA</t>
+  </si>
+  <si>
+    <t>15 dz</t>
   </si>
   <si>
     <t>5LB Peeled Garlic</t>
@@ -328,6 +376,12 @@
     <t>Only LB Ginger - Brazil</t>
   </si>
   <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>Green Bean - USA</t>
+  </si>
+  <si>
     <t>Snipped Gr. Beans 10lb. - USA</t>
   </si>
   <si>
@@ -367,6 +421,12 @@
     <t>16#</t>
   </si>
   <si>
+    <t>Chopped Kale - 4/1lb - usa</t>
+  </si>
+  <si>
+    <t>4/1#</t>
+  </si>
+  <si>
     <t>Romaine  Heart 12/3 ct - USA</t>
   </si>
   <si>
@@ -400,9 +460,15 @@
     <t>Oregano - Only Bunch</t>
   </si>
   <si>
+    <t>bu</t>
+  </si>
+  <si>
     <t>Bunches Curly Parsley - Mex</t>
   </si>
   <si>
+    <t>Parsley - Washed 4/1LB - USA</t>
+  </si>
+  <si>
     <t>Only Basil - LB</t>
   </si>
   <si>
@@ -442,6 +508,9 @@
     <t>Only Watermelon - USA</t>
   </si>
   <si>
+    <t>only</t>
+  </si>
+  <si>
     <t>10 lb.  Mushroom - USA</t>
   </si>
   <si>
@@ -469,9 +538,15 @@
     <t>25 lb.  Red  Onions - USA</t>
   </si>
   <si>
+    <t>Peeled Red Onions - USA</t>
+  </si>
+  <si>
     <t>50 lb.  Spanish Onions - USA</t>
   </si>
   <si>
+    <t>Peeled Yellow Onions - USA</t>
+  </si>
+  <si>
     <t>Snow Pea 10# - Guat</t>
   </si>
   <si>
@@ -490,6 +565,9 @@
     <t>11#</t>
   </si>
   <si>
+    <t>Red Pepper- 25LB USA</t>
+  </si>
+  <si>
     <t>Jalapeno Pepper-Bushel-USA</t>
   </si>
   <si>
@@ -541,9 +619,18 @@
     <t>Bok Choy 30lb - can</t>
   </si>
   <si>
+    <t>Rapini - AndyBoy - USA</t>
+  </si>
+  <si>
+    <t>Green Swiss Chard - USA</t>
+  </si>
+  <si>
     <t>Peeled Shallot</t>
   </si>
   <si>
+    <t>Acorn  Squash - mex</t>
+  </si>
+  <si>
     <t>Green Squash  - USA</t>
   </si>
   <si>
@@ -560,15 +647,6 @@
   </si>
   <si>
     <t>DATE</t>
-  </si>
-  <si>
-    <t>1 lb</t>
-  </si>
-  <si>
-    <t>1 ea</t>
-  </si>
-  <si>
-    <t>30 lb</t>
   </si>
 </sst>
 </file>
@@ -665,9 +743,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -705,7 +783,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -811,7 +889,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -953,7 +1031,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -961,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BACE606-7584-4560-A0E4-C4A59DA41F44}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,10 +1068,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1001,27 +1079,27 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>16.850000000000001</v>
       </c>
       <c r="G2" s="6">
-        <v>45739</v>
+        <v>45753</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1">
         <v>39.5</v>
@@ -1032,10 +1110,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1">
         <v>32.5</v>
@@ -1046,24 +1124,27 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1">
-        <v>22.5</v>
+        <v>21.5</v>
+      </c>
+      <c r="E5">
+        <v>19.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1">
         <v>18.850000000000001</v>
@@ -1071,27 +1152,27 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1">
-        <v>21.85</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1">
         <v>35.85</v>
@@ -1102,10 +1183,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1">
         <v>36</v>
@@ -1116,10 +1197,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1">
         <v>14.85</v>
@@ -1129,17 +1210,8 @@
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="1">
-        <v>25.5</v>
-      </c>
-      <c r="E11">
-        <v>32.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1147,75 +1219,69 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1">
         <v>28.85</v>
       </c>
       <c r="E12">
-        <v>31.5</v>
+        <v>25.85</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="E13">
-        <v>12.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1">
-        <v>22.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1">
-        <v>29.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1223,55 +1289,52 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D17" s="1">
-        <v>29.85</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="D18" s="1">
-        <v>22.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1">
-        <v>48</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1">
-        <v>34.5</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1279,10 +1342,10 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D21" s="1">
         <v>22.5</v>
@@ -1293,13 +1356,13 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>189</v>
+      </c>
+      <c r="C22" s="1">
+        <v>30</v>
       </c>
       <c r="D22" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,13 +1370,13 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D23" s="1">
-        <v>26.85</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1321,13 +1384,13 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D24" s="1">
-        <v>25</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1335,16 +1398,13 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D25" s="1">
-        <v>25.5</v>
-      </c>
-      <c r="E25">
-        <v>28.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1352,41 +1412,32 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D26" s="1">
-        <v>21.85</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="1">
-        <v>13.85</v>
-      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D28" s="1">
-        <v>24</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1394,13 +1445,10 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="1">
-        <v>12.5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1408,13 +1456,10 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="D30" s="1">
-        <v>0.75</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,13 +1467,16 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D31" s="1">
-        <v>3.75</v>
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>25.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1436,13 +1484,13 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D32" s="1">
-        <v>0.75</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1450,181 +1498,172 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="D33" s="1">
-        <v>12.5</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D34" s="1">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="D35" s="1">
-        <v>42</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="1">
-        <v>36.5</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D37" s="1">
-        <v>18.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D38" s="1">
-        <v>25.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D39" s="1">
-        <v>22.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="1">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D41" s="1">
-        <v>21</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D42" s="1">
-        <v>17.25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D43" s="1">
-        <v>21.75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D44" s="1">
-        <v>22.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D45" s="1">
-        <v>20</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1632,13 +1671,13 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="D46" s="1">
-        <v>24.85</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1646,13 +1685,13 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D47" s="1">
-        <v>24</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1660,13 +1699,13 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="D48" s="1">
-        <v>24.85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,13 +1713,13 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D49" s="1">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1688,13 +1727,13 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="D50" s="1">
-        <v>24.5</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1702,27 +1741,27 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D51" s="1">
-        <v>28.5</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="D52" s="1">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1730,13 +1769,13 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="D53" s="1">
-        <v>24.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1744,13 +1783,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1">
-        <v>2.5</v>
+        <v>24.85</v>
+      </c>
+      <c r="E54">
+        <v>21.85</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1758,181 +1800,350 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="1">
-        <v>22.5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D56" s="1">
-        <v>22.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D57" s="1">
-        <v>55</v>
+        <v>24.85</v>
+      </c>
+      <c r="E57">
+        <v>22.85</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="1">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" s="1">
         <v>64</v>
-      </c>
-      <c r="B59" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="1">
-        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="D60" s="1">
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D61" s="1">
-        <v>2.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>66</v>
+      <c r="A62" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D62" s="1">
-        <v>26.5</v>
+        <v>24.5</v>
+      </c>
+      <c r="E62">
+        <v>29.5</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D63" s="1">
-        <v>18.5</v>
+        <v>24.5</v>
+      </c>
+      <c r="E63">
+        <v>29.5</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D64" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="E64">
-        <v>22.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="D65" s="1">
-        <v>19.850000000000001</v>
-      </c>
-      <c r="E65">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" s="1">
-        <v>14.85</v>
-      </c>
-      <c r="E66">
-        <v>17.850000000000001</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="1">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" s="1">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="1">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" s="1">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" s="1">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="1">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="E80">
+        <v>16.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A66">
-    <sortCondition ref="A2:A66"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A80">
+    <sortCondition ref="A2:A80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
+++ b/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrusso\Desktop\ITHACA BAKERY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D058E09-2D0D-436D-A851-FDAE4C4E7002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A971423-2A47-47C9-9623-AB25B50FD364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="1020" windowWidth="15660" windowHeight="14310" xr2:uid="{D713FEDB-616F-4664-986D-CB84BBC0D824}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D713FEDB-616F-4664-986D-CB84BBC0D824}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="174">
   <si>
     <t>Item Name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Carrots (25 lb)</t>
   </si>
   <si>
-    <t>Carrots (50 lb)</t>
-  </si>
-  <si>
     <t>Cauliflower</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Ginger Root</t>
   </si>
   <si>
-    <t>Green Beans</t>
-  </si>
-  <si>
     <t>Green Beans (Trimmed &amp; Fresh)</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>Cucumbers (English)</t>
   </si>
   <si>
-    <t>Eggs (Shell-On)</t>
-  </si>
-  <si>
     <t>Garlic (Peeled)</t>
   </si>
   <si>
@@ -147,18 +138,9 @@
     <t>Greens - Green Leaf Lettuce (Fillet)</t>
   </si>
   <si>
-    <t>Greens - Green Leaf Lettuce (Washed &amp; Trimmed)</t>
-  </si>
-  <si>
     <t>Greens - Kale</t>
   </si>
   <si>
-    <t>Greens - Kale (Cleaned)</t>
-  </si>
-  <si>
-    <t>Greens - Rapini (Broccoli Rabe)</t>
-  </si>
-  <si>
     <t>Greens - Romaine (Hearts)</t>
   </si>
   <si>
@@ -174,9 +156,6 @@
     <t>Greens - Spring Mix</t>
   </si>
   <si>
-    <t>Greens - Swiss Chard</t>
-  </si>
-  <si>
     <t>Herb - Cilantro</t>
   </si>
   <si>
@@ -186,9 +165,6 @@
     <t>Herb - Parsley</t>
   </si>
   <si>
-    <t>Herb - Parsley (Washed &amp; Trimmed)</t>
-  </si>
-  <si>
     <t>Herbs - Basil (Cleaned)</t>
   </si>
   <si>
@@ -219,18 +195,12 @@
     <t>Onion - Red</t>
   </si>
   <si>
-    <t>Onion - Red (Peeled)</t>
-  </si>
-  <si>
     <t>Onion - Shallot</t>
   </si>
   <si>
     <t>Onion - Spanish</t>
   </si>
   <si>
-    <t>Onion - Spanish (Peeled)</t>
-  </si>
-  <si>
     <t>Pears</t>
   </si>
   <si>
@@ -252,18 +222,9 @@
     <t>Pepper - Red Bell (11 LB)</t>
   </si>
   <si>
-    <t>Pepper - Red Bell (25 LB)</t>
-  </si>
-  <si>
-    <t>Pepper - Red Bell (5 LB)</t>
-  </si>
-  <si>
     <t>Pomegranate (Whole)</t>
   </si>
   <si>
-    <t>Pomegranate Seeds (Frozen)</t>
-  </si>
-  <si>
     <t>Potato - Chef</t>
   </si>
   <si>
@@ -273,9 +234,6 @@
     <t>Potato - Russet</t>
   </si>
   <si>
-    <t>Squash - Acorn</t>
-  </si>
-  <si>
     <t>Squash - Yellow</t>
   </si>
   <si>
@@ -346,12 +304,6 @@
   </si>
   <si>
     <t>Gourmet Cuke 12 ct - CAN</t>
-  </si>
-  <si>
-    <t>15 DOZEN XL EGG - USA</t>
-  </si>
-  <si>
-    <t>15 dz</t>
   </si>
   <si>
     <t>5LB Peeled Garlic</t>
@@ -376,12 +328,6 @@
     <t>Only LB Ginger - Brazil</t>
   </si>
   <si>
-    <t>lb</t>
-  </si>
-  <si>
-    <t>Green Bean - USA</t>
-  </si>
-  <si>
     <t>Snipped Gr. Beans 10lb. - USA</t>
   </si>
   <si>
@@ -421,12 +367,6 @@
     <t>16#</t>
   </si>
   <si>
-    <t>Chopped Kale - 4/1lb - usa</t>
-  </si>
-  <si>
-    <t>4/1#</t>
-  </si>
-  <si>
     <t>Romaine  Heart 12/3 ct - USA</t>
   </si>
   <si>
@@ -460,15 +400,9 @@
     <t>Oregano - Only Bunch</t>
   </si>
   <si>
-    <t>bu</t>
-  </si>
-  <si>
     <t>Bunches Curly Parsley - Mex</t>
   </si>
   <si>
-    <t>Parsley - Washed 4/1LB - USA</t>
-  </si>
-  <si>
     <t>Only Basil - LB</t>
   </si>
   <si>
@@ -508,9 +442,6 @@
     <t>Only Watermelon - USA</t>
   </si>
   <si>
-    <t>only</t>
-  </si>
-  <si>
     <t>10 lb.  Mushroom - USA</t>
   </si>
   <si>
@@ -538,15 +469,9 @@
     <t>25 lb.  Red  Onions - USA</t>
   </si>
   <si>
-    <t>Peeled Red Onions - USA</t>
-  </si>
-  <si>
     <t>50 lb.  Spanish Onions - USA</t>
   </si>
   <si>
-    <t>Peeled Yellow Onions - USA</t>
-  </si>
-  <si>
     <t>Snow Pea 10# - Guat</t>
   </si>
   <si>
@@ -565,9 +490,6 @@
     <t>11#</t>
   </si>
   <si>
-    <t>Red Pepper- 25LB USA</t>
-  </si>
-  <si>
     <t>Jalapeno Pepper-Bushel-USA</t>
   </si>
   <si>
@@ -619,18 +541,9 @@
     <t>Bok Choy 30lb - can</t>
   </si>
   <si>
-    <t>Rapini - AndyBoy - USA</t>
-  </si>
-  <si>
-    <t>Green Swiss Chard - USA</t>
-  </si>
-  <si>
     <t>Peeled Shallot</t>
   </si>
   <si>
-    <t>Acorn  Squash - mex</t>
-  </si>
-  <si>
     <t>Green Squash  - USA</t>
   </si>
   <si>
@@ -647,6 +560,15 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>1 lb</t>
+  </si>
+  <si>
+    <t>1 ea</t>
+  </si>
+  <si>
+    <t>30 lb</t>
   </si>
 </sst>
 </file>
@@ -743,9 +665,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -783,7 +705,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -889,7 +811,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1031,7 +953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1039,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BACE606-7584-4560-A0E4-C4A59DA41F44}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,10 +990,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1079,27 +1001,27 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>16.850000000000001</v>
       </c>
       <c r="G2" s="6">
-        <v>45753</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1">
         <v>39.5</v>
@@ -1110,10 +1032,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1">
         <v>32.5</v>
@@ -1124,27 +1046,24 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1">
-        <v>21.5</v>
-      </c>
-      <c r="E5">
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1">
         <v>18.850000000000001</v>
@@ -1152,27 +1071,27 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1">
-        <v>22.85</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1">
         <v>35.85</v>
@@ -1183,10 +1102,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1">
         <v>36</v>
@@ -1197,10 +1116,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1">
         <v>14.85</v>
@@ -1210,8 +1129,17 @@
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
+      </c>
+      <c r="D11" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="E11">
+        <v>32.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1219,69 +1147,75 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D12" s="1">
         <v>28.85</v>
       </c>
       <c r="E12">
-        <v>25.85</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1">
-        <v>27.5</v>
+        <v>14.5</v>
+      </c>
+      <c r="E13">
+        <v>12.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1">
-        <v>12.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>171</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="D16" s="1">
-        <v>22.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1289,52 +1223,55 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
+        <v>29.85</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1">
-        <v>29.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>163</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="D19" s="1">
-        <v>29.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D20" s="1">
-        <v>29.85</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1342,10 +1279,10 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D21" s="1">
         <v>22.5</v>
@@ -1356,13 +1293,13 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="1">
-        <v>30</v>
+        <v>101</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D22" s="1">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1370,13 +1307,13 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1">
-        <v>34.5</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1384,13 +1321,13 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D24" s="1">
-        <v>21.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1398,13 +1335,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D25" s="1">
-        <v>24</v>
+        <v>25.5</v>
+      </c>
+      <c r="E25">
+        <v>28.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,32 +1352,41 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D26" s="1">
-        <v>26.85</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="1">
+        <v>13.85</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D28" s="1">
-        <v>22.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1445,10 +1394,13 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
+      </c>
+      <c r="D29" s="1">
+        <v>12.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1456,10 +1408,13 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>114</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D30" s="1">
-        <v>52.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1467,16 +1422,13 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D31" s="1">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>25.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1484,13 +1436,13 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D32" s="1">
-        <v>21.85</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,172 +1450,181 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="D33" s="1">
-        <v>13.85</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D34" s="1">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="D35" s="1">
-        <v>12.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>122</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="1">
+        <v>36.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D37" s="1">
-        <v>0.75</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D38" s="1">
-        <v>3.75</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D39" s="1">
-        <v>0.75</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>125</v>
+        <v>172</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D41" s="1">
-        <v>12.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D42" s="1">
-        <v>35</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D43" s="1">
-        <v>42</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D44" s="1">
-        <v>36.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D45" s="1">
-        <v>21.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,13 +1632,13 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1">
-        <v>24.5</v>
+        <v>24.85</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,13 +1646,13 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D47" s="1">
-        <v>22.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,13 +1660,13 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="D48" s="1">
-        <v>8</v>
+        <v>24.85</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1713,13 +1674,13 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D49" s="1">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1727,13 +1688,13 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D50" s="1">
-        <v>17.25</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1741,27 +1702,27 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D51" s="1">
-        <v>21.75</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="D52" s="1">
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1769,13 +1730,13 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="D53" s="1">
-        <v>20</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1783,16 +1744,13 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="D54" s="1">
-        <v>24.85</v>
-      </c>
-      <c r="E54">
-        <v>21.85</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,350 +1758,181 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>146</v>
+      </c>
+      <c r="D55" s="1">
+        <v>22.5</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D56" s="1">
-        <v>24</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D57" s="1">
-        <v>24.85</v>
-      </c>
-      <c r="E57">
-        <v>22.85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>118</v>
+        <v>84</v>
+      </c>
+      <c r="D58" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="D59" s="1">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="D60" s="1">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D61" s="1">
-        <v>28.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>68</v>
+      <c r="A62" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D62" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="E62">
-        <v>29.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D63" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="E63">
-        <v>29.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="D64" s="1">
-        <v>2.5</v>
+        <v>24.5</v>
+      </c>
+      <c r="E64">
+        <v>22.5</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="D65" s="1">
-        <v>22.5</v>
+        <v>19.850000000000001</v>
+      </c>
+      <c r="E65">
+        <v>23.5</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" t="s">
-        <v>174</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D68" s="1">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" t="s">
-        <v>176</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" t="s">
-        <v>178</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="1">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B74" t="s">
-        <v>180</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" t="s">
-        <v>193</v>
-      </c>
-      <c r="D75" s="1">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" t="s">
-        <v>195</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="1">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" t="s">
-        <v>194</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D77" s="1">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" t="s">
-        <v>182</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D78" s="1">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" t="s">
-        <v>184</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D79" s="1">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" t="s">
-        <v>185</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D80" s="1">
-        <v>18.5</v>
-      </c>
-      <c r="E80">
-        <v>16.5</v>
+        <v>86</v>
+      </c>
+      <c r="D66" s="1">
+        <v>14.85</v>
+      </c>
+      <c r="E66">
+        <v>17.850000000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A80">
-    <sortCondition ref="A2:A80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A66">
+    <sortCondition ref="A2:A66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
+++ b/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A971423-2A47-47C9-9623-AB25B50FD364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E934BA41-5B64-41F4-A9D8-FDCD00082E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D713FEDB-616F-4664-986D-CB84BBC0D824}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="173">
   <si>
     <t>Item Name</t>
   </si>
@@ -566,9 +566,6 @@
   </si>
   <si>
     <t>1 ea</t>
-  </si>
-  <si>
-    <t>30 lb</t>
   </si>
 </sst>
 </file>
@@ -963,14 +960,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BACE606-7584-4560-A0E4-C4A59DA41F44}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -1010,7 +1007,7 @@
         <v>16.850000000000001</v>
       </c>
       <c r="G2" s="6">
-        <v>45739</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1052,7 +1049,7 @@
         <v>76</v>
       </c>
       <c r="D5" s="1">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1080,7 +1077,7 @@
         <v>78</v>
       </c>
       <c r="D7" s="1">
-        <v>21.85</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1108,7 +1105,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
         <v>82</v>
       </c>
       <c r="D10" s="1">
-        <v>14.85</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1136,10 +1136,7 @@
         <v>86</v>
       </c>
       <c r="D11" s="1">
-        <v>25.5</v>
-      </c>
-      <c r="E11">
-        <v>32.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1153,10 +1150,7 @@
         <v>88</v>
       </c>
       <c r="D12" s="1">
-        <v>28.85</v>
-      </c>
-      <c r="E12">
-        <v>31.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1170,9 +1164,6 @@
         <v>86</v>
       </c>
       <c r="D13" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="E13">
         <v>12.5</v>
       </c>
     </row>
@@ -1215,7 +1206,7 @@
         <v>162</v>
       </c>
       <c r="D16" s="1">
-        <v>29.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,7 +1220,7 @@
         <v>94</v>
       </c>
       <c r="D17" s="1">
-        <v>29.85</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1253,8 +1244,8 @@
       <c r="B19" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>173</v>
+      <c r="C19" s="1">
+        <v>30</v>
       </c>
       <c r="D19" s="1">
         <v>48</v>
@@ -1285,7 +1276,7 @@
         <v>100</v>
       </c>
       <c r="D21" s="1">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1301,6 +1292,9 @@
       <c r="D22" s="1">
         <v>24</v>
       </c>
+      <c r="E22">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1327,7 +1321,7 @@
         <v>105</v>
       </c>
       <c r="D24" s="1">
-        <v>25</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1343,9 +1337,6 @@
       <c r="D25" s="1">
         <v>25.5</v>
       </c>
-      <c r="E25">
-        <v>28.5</v>
-      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1445,7 +1436,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
@@ -1459,7 +1450,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -1470,10 +1461,10 @@
         <v>120</v>
       </c>
       <c r="D34" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
@@ -1484,10 +1475,13 @@
         <v>86</v>
       </c>
       <c r="D35" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
@@ -1498,10 +1492,13 @@
         <v>123</v>
       </c>
       <c r="D36" s="1">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34.5</v>
+      </c>
+      <c r="E36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
@@ -1512,10 +1509,10 @@
         <v>125</v>
       </c>
       <c r="D37" s="1">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
@@ -1529,7 +1526,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
@@ -1540,10 +1537,10 @@
         <v>129</v>
       </c>
       <c r="D39" s="1">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
@@ -1556,8 +1553,11 @@
       <c r="D40" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
@@ -1624,10 +1624,10 @@
         <v>138</v>
       </c>
       <c r="D45" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -1638,10 +1638,10 @@
         <v>82</v>
       </c>
       <c r="D46" s="1">
-        <v>24.85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>84</v>
       </c>
       <c r="D48" s="1">
-        <v>24.85</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>132</v>
       </c>
       <c r="D50" s="1">
-        <v>24.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1722,7 +1722,10 @@
         <v>82</v>
       </c>
       <c r="D52" s="1">
-        <v>24.5</v>
+        <v>25.5</v>
+      </c>
+      <c r="E52">
+        <v>28.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1736,7 +1739,7 @@
         <v>82</v>
       </c>
       <c r="D53" s="1">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1764,7 +1767,7 @@
         <v>146</v>
       </c>
       <c r="D55" s="1">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1820,7 +1823,7 @@
         <v>84</v>
       </c>
       <c r="D59" s="1">
-        <v>22</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1834,7 +1837,7 @@
         <v>84</v>
       </c>
       <c r="D60" s="1">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1862,7 +1865,10 @@
         <v>78</v>
       </c>
       <c r="D62" s="1">
-        <v>26.5</v>
+        <v>19.5</v>
+      </c>
+      <c r="E62">
+        <v>17.5</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1876,7 +1882,10 @@
         <v>78</v>
       </c>
       <c r="D63" s="1">
-        <v>18.5</v>
+        <v>17.5</v>
+      </c>
+      <c r="E63">
+        <v>15.5</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1890,13 +1899,10 @@
         <v>157</v>
       </c>
       <c r="D64" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="E64">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
@@ -1907,13 +1913,10 @@
         <v>82</v>
       </c>
       <c r="D65" s="1">
-        <v>19.850000000000001</v>
-      </c>
-      <c r="E65">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>69</v>
       </c>
@@ -1924,10 +1927,7 @@
         <v>86</v>
       </c>
       <c r="D66" s="1">
-        <v>14.85</v>
-      </c>
-      <c r="E66">
-        <v>17.850000000000001</v>
+        <v>16.5</v>
       </c>
     </row>
   </sheetData>

--- a/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
+++ b/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8293E34-CC8C-4F70-A008-4E07A22A2CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06261527-5B53-4383-9837-13ED5738BCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="194">
   <si>
     <t>Alfalfa Sprouts</t>
   </si>
@@ -304,9 +304,6 @@
     </r>
   </si>
   <si>
-    <t>lb</t>
-  </si>
-  <si>
     <t>18#</t>
   </si>
   <si>
@@ -343,9 +340,6 @@
     <t>1 bu</t>
   </si>
   <si>
-    <t>bu</t>
-  </si>
-  <si>
     <t>110 ct</t>
   </si>
   <si>
@@ -406,13 +400,10 @@
     <t>11LB</t>
   </si>
   <si>
-    <t>ea</t>
-  </si>
-  <si>
-    <t>30 ea</t>
-  </si>
-  <si>
-    <t>Item SKU</t>
+    <t>1 lb</t>
+  </si>
+  <si>
+    <t>1 ea</t>
   </si>
   <si>
     <t>Alfalfa Sprout - 5LB - NYS</t>
@@ -608,6 +599,27 @@
   </si>
   <si>
     <t>Grape Tomato - USA</t>
+  </si>
+  <si>
+    <t>ASP11</t>
+  </si>
+  <si>
+    <t>EGGPL24</t>
+  </si>
+  <si>
+    <t>GRAPEGREEN18</t>
+  </si>
+  <si>
+    <t>ORAN88</t>
+  </si>
+  <si>
+    <t>PARSN20</t>
+  </si>
+  <si>
+    <t>SWEETPOT40</t>
+  </si>
+  <si>
+    <t>TURNIP25</t>
   </si>
 </sst>
 </file>
@@ -973,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,9 +1003,7 @@
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
         <v>73</v>
       </c>
@@ -1012,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>77</v>
@@ -1020,8 +1030,8 @@
       <c r="D2" s="3">
         <v>16.850000000000001</v>
       </c>
-      <c r="E2">
-        <v>28.5</v>
+      <c r="G2" s="5">
+        <v>45830</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1029,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>78</v>
@@ -1043,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>79</v>
@@ -1056,12 +1066,14 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3">
-        <v>75</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>80</v>
@@ -1083,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>81</v>
@@ -1097,13 +1109,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D8" s="3">
         <v>24.5</v>
+      </c>
+      <c r="E8">
+        <v>25.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1111,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>83</v>
@@ -1125,16 +1140,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D10" s="3">
-        <v>52</v>
-      </c>
-      <c r="E10">
-        <v>19.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1142,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>81</v>
@@ -1156,13 +1168,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="3">
         <v>27.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1170,13 +1185,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="3">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1184,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>85</v>
@@ -1197,9 +1212,11 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15" s="3">
         <v>30</v>
@@ -1210,7 +1227,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>87</v>
@@ -1224,10 +1241,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -1237,15 +1254,17 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="3">
         <v>54</v>
       </c>
       <c r="E18">
-        <v>19.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1253,10 +1272,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="3">
         <v>38</v>
@@ -1267,10 +1286,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" s="3">
         <v>32</v>
@@ -1281,13 +1300,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="3">
         <v>27.5</v>
+      </c>
+      <c r="E21">
+        <v>29.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,16 +1317,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="3">
         <v>22.5</v>
-      </c>
-      <c r="E22">
-        <v>32.85</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1312,10 +1331,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>123</v>
+        <v>140</v>
+      </c>
+      <c r="C23" s="3">
+        <v>30</v>
       </c>
       <c r="D23" s="3">
         <v>48</v>
@@ -1326,10 +1345,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="3">
         <v>34.5</v>
@@ -1340,10 +1359,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="3">
         <v>21.5</v>
@@ -1354,10 +1373,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="3">
         <v>22.5</v>
@@ -1368,10 +1387,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="3">
         <v>26.85</v>
@@ -1382,10 +1401,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="3">
         <v>22.5</v>
@@ -1396,13 +1415,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="3">
-        <v>26.5</v>
+        <v>32.85</v>
+      </c>
+      <c r="E29">
+        <v>34.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1410,10 +1432,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="3">
         <v>21.85</v>
@@ -1424,10 +1446,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="3">
         <v>13.85</v>
@@ -1438,111 +1460,105 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="3">
         <v>12.5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="3">
         <v>0.75</v>
       </c>
-      <c r="G34" s="5">
-        <v>45823</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D35" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D36" s="3">
         <v>0.75</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D37" s="3">
         <v>12.5</v>
       </c>
-      <c r="E37">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D38" s="3">
         <v>42.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>85</v>
@@ -1551,152 +1567,152 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D40" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D41" s="3">
         <v>21.5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D42" s="3">
         <v>26.5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D43" s="3">
         <v>21.5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" s="3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D45" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D46" s="3">
         <v>17.25</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" s="3">
         <v>21.75</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D48" s="3">
         <v>22.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D49" s="3">
         <v>21.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>81</v>
@@ -1705,26 +1721,26 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D51" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>84</v>
@@ -1733,157 +1749,158 @@
         <v>22.85</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="7"/>
+      <c r="B53" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="C53" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D53" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="7"/>
+      <c r="B54" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="C54" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D54" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D55" s="3">
         <v>58</v>
       </c>
-      <c r="E55">
-        <v>19.850000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D56" s="3">
         <v>28.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D57" s="3">
         <v>28.5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D58" s="3">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19.5</v>
+      </c>
+      <c r="E58">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D59" s="3">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19.5</v>
+      </c>
+      <c r="E59">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D60" s="3">
         <v>2.5</v>
       </c>
-      <c r="E60">
-        <v>37.5</v>
-      </c>
-      <c r="F60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D61" s="3">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19.850000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D62" s="3">
         <v>22.5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>86</v>
@@ -1892,12 +1909,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>84</v>
@@ -1911,7 +1928,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>84</v>
@@ -1925,7 +1942,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>84</v>
@@ -1938,7 +1955,9 @@
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="7"/>
+      <c r="B67" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="C67" s="3" t="s">
         <v>80</v>
       </c>
@@ -1951,10 +1970,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D68" s="3">
         <v>2.5</v>
@@ -1965,13 +1984,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D69" s="3">
         <v>17.5</v>
+      </c>
+      <c r="E69">
+        <v>18.5</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,13 +2001,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D70" s="3">
         <v>15.5</v>
+      </c>
+      <c r="E70">
+        <v>16.5</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1993,16 +2018,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D71" s="3">
         <v>20</v>
       </c>
       <c r="E71">
-        <v>48</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2010,13 +2035,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D72" s="3">
-        <v>28.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2024,7 +2049,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>85</v>
@@ -2035,17 +2060,25 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D74" s="3">
         <v>25</v>
       </c>
     </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G74">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E74">
     <sortCondition ref="A2:A74"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
+++ b/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06261527-5B53-4383-9837-13ED5738BCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9899941-9757-4BF3-BD0E-13F5B3E8786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="194">
   <si>
     <t>Alfalfa Sprouts</t>
   </si>
@@ -400,233 +400,233 @@
     <t>11LB</t>
   </si>
   <si>
+    <t>MALFALFA</t>
+  </si>
+  <si>
+    <t>FAPE80</t>
+  </si>
+  <si>
+    <t>MCIDG</t>
+  </si>
+  <si>
+    <t>VASP28</t>
+  </si>
+  <si>
+    <t>FBAN</t>
+  </si>
+  <si>
+    <t>VBT25</t>
+  </si>
+  <si>
+    <t>VBRCCN</t>
+  </si>
+  <si>
+    <t>PBRFL</t>
+  </si>
+  <si>
+    <t>VBRSP</t>
+  </si>
+  <si>
+    <t>VCAR25US</t>
+  </si>
+  <si>
+    <t>VFLOW12</t>
+  </si>
+  <si>
+    <t>VCELSL</t>
+  </si>
+  <si>
+    <t>VCUKG</t>
+  </si>
+  <si>
+    <t>VRG</t>
+  </si>
+  <si>
+    <t>PPGAR</t>
+  </si>
+  <si>
+    <t>VGIN</t>
+  </si>
+  <si>
+    <t>FGPWB</t>
+  </si>
+  <si>
+    <t>FGPRB</t>
+  </si>
+  <si>
+    <t>VGRB</t>
+  </si>
+  <si>
+    <t>PGRBS</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>VBK</t>
+  </si>
+  <si>
+    <t>VNP</t>
+  </si>
+  <si>
+    <t>PSLAW20</t>
+  </si>
+  <si>
+    <t>VCOL</t>
+  </si>
+  <si>
+    <t>PGRLFC</t>
+  </si>
+  <si>
+    <t>VKL</t>
+  </si>
+  <si>
+    <t>VLTROMH</t>
+  </si>
+  <si>
+    <t>PCHROM</t>
+  </si>
+  <si>
+    <t>PSPMX</t>
+  </si>
+  <si>
+    <t>PSPB10</t>
+  </si>
+  <si>
+    <t>VCIL</t>
+  </si>
+  <si>
+    <t>HOREGANO</t>
+  </si>
+  <si>
+    <t>VPARC</t>
+  </si>
+  <si>
+    <t>VBSI</t>
+  </si>
+  <si>
+    <t>FKIWI</t>
+  </si>
+  <si>
+    <t>VLEEK</t>
+  </si>
+  <si>
+    <t>FLEM115</t>
+  </si>
+  <si>
+    <t>FLM36</t>
+  </si>
+  <si>
+    <t>FLP9</t>
+  </si>
+  <si>
+    <t>FHD</t>
+  </si>
+  <si>
+    <t>FWMEL</t>
+  </si>
+  <si>
+    <t>VMUSH10</t>
+  </si>
+  <si>
+    <t>VMUSH5P</t>
+  </si>
+  <si>
+    <t>VMUSHSHI</t>
+  </si>
+  <si>
+    <t>VMUSHSL10</t>
+  </si>
+  <si>
+    <t>VGRON</t>
+  </si>
+  <si>
+    <t>VONRD</t>
+  </si>
+  <si>
+    <t>PSHALP</t>
+  </si>
+  <si>
+    <t>VONSP</t>
+  </si>
+  <si>
+    <t>FNAV88</t>
+  </si>
+  <si>
+    <t>VPAR</t>
+  </si>
+  <si>
+    <t>FPRD</t>
+  </si>
+  <si>
+    <t>VSNO</t>
+  </si>
+  <si>
+    <t>VSNAP</t>
+  </si>
+  <si>
+    <t>VPEPXL</t>
+  </si>
+  <si>
+    <t>VPEPLG</t>
+  </si>
+  <si>
+    <t>VPEPJAL</t>
+  </si>
+  <si>
+    <t>VPEPRD</t>
+  </si>
+  <si>
+    <t>FPINE7</t>
+  </si>
+  <si>
+    <t>FPOM</t>
+  </si>
+  <si>
+    <t>VPOTC</t>
+  </si>
+  <si>
+    <t>VPOTRDA</t>
+  </si>
+  <si>
+    <t>VPOT70</t>
+  </si>
+  <si>
+    <t>VYM</t>
+  </si>
+  <si>
+    <t>VRAD1</t>
+  </si>
+  <si>
+    <t>VSQY</t>
+  </si>
+  <si>
+    <t>VSQG</t>
+  </si>
+  <si>
+    <t>FBERST</t>
+  </si>
+  <si>
+    <t>VTOM56</t>
+  </si>
+  <si>
+    <t>VTOMG</t>
+  </si>
+  <si>
+    <t>VPT</t>
+  </si>
+  <si>
     <t>1 lb</t>
   </si>
   <si>
     <t>1 ea</t>
-  </si>
-  <si>
-    <t>Alfalfa Sprout - 5LB - NYS</t>
-  </si>
-  <si>
-    <t>12x3lb Empire Apple -  - USA</t>
-  </si>
-  <si>
-    <t>6/1 Gallon Cider - Beak</t>
-  </si>
-  <si>
-    <t>Banana -40lb- CRI</t>
-  </si>
-  <si>
-    <t>25 lb Cut Beet</t>
-  </si>
-  <si>
-    <t>Broccoli Crown - 20lb -USA</t>
-  </si>
-  <si>
-    <t>Broccoli Floret -6/3lb-USA</t>
-  </si>
-  <si>
-    <t>Brussel Sprout 25# -USA</t>
-  </si>
-  <si>
-    <t>25 lb. Carrot -US</t>
-  </si>
-  <si>
-    <t>Cauliflower 12's - USA</t>
-  </si>
-  <si>
-    <t>4x5 lb. Celery Stix - USA</t>
-  </si>
-  <si>
-    <t>Cucumber  SS - USA</t>
-  </si>
-  <si>
-    <t>5LB Peeled Garlic</t>
-  </si>
-  <si>
-    <t>Ginger - 30lb - CHN</t>
-  </si>
-  <si>
-    <t>Red Seedless Grape - per</t>
-  </si>
-  <si>
-    <t>Green Bean - USA</t>
-  </si>
-  <si>
-    <t>Snipped Gr. Beans 10lb. - USA</t>
-  </si>
-  <si>
-    <t>Baby Arugula 4lb - usa</t>
-  </si>
-  <si>
-    <t>Bok Choy 30lb - can</t>
-  </si>
-  <si>
-    <t>Napa 30lb - USA</t>
-  </si>
-  <si>
-    <t>4x5lb. Cole Slaw - USA</t>
-  </si>
-  <si>
-    <t>Collard Greens - USA</t>
-  </si>
-  <si>
-    <t>Green Leaf Crowns 10# - USA</t>
-  </si>
-  <si>
-    <t>Kale  16lb - USA</t>
-  </si>
-  <si>
-    <t>Romaine  Heart 12/3 ct - USA</t>
-  </si>
-  <si>
-    <t>Romaine - Chopped 6x2lb - USA</t>
-  </si>
-  <si>
-    <t>Spring Mix 3lb -HERITAGE -USA</t>
-  </si>
-  <si>
-    <t>Baby Spinach 4/2.5lb. - USA</t>
-  </si>
-  <si>
-    <t>CILANTRO - 60ct CASE</t>
-  </si>
-  <si>
-    <t>Oregano - Only Bunch</t>
-  </si>
-  <si>
-    <t>Bunches Curly Parsley - Mex</t>
-  </si>
-  <si>
-    <t>Only Basil - LB</t>
-  </si>
-  <si>
-    <t>Kiwifruit - ITA</t>
-  </si>
-  <si>
-    <t>Leek 12 ct - Mex</t>
-  </si>
-  <si>
-    <t>115 Lemon - USA</t>
-  </si>
-  <si>
-    <t>36 ct Lime  - Mex</t>
-  </si>
-  <si>
-    <t>Lopes 9's - USA</t>
-  </si>
-  <si>
-    <t>Honeydew 5 ct - USA</t>
-  </si>
-  <si>
-    <t>Only Watermelon - USA</t>
-  </si>
-  <si>
-    <t>10 lb.  Mushroom - USA</t>
-  </si>
-  <si>
-    <t>5 lb. Portabello Mush-USA</t>
-  </si>
-  <si>
-    <t>Shitake Mushroom 3LB - USA</t>
-  </si>
-  <si>
-    <t>Sliced Mushroom - 10lb- USA</t>
-  </si>
-  <si>
-    <t>Green Onion 48ct  - USA</t>
-  </si>
-  <si>
-    <t>25 lb.  Red  Onions - USA</t>
-  </si>
-  <si>
-    <t>Peeled Shallot</t>
-  </si>
-  <si>
-    <t>50 lb.  Spanish Onions - USA</t>
-  </si>
-  <si>
-    <t>D`Anjou Pear 46# - USA</t>
-  </si>
-  <si>
-    <t>Snow Pea 10# - Guat</t>
-  </si>
-  <si>
-    <t>Snap Pea -10# -</t>
-  </si>
-  <si>
-    <t>Jumbo Pepper 1 1/9 bu- USA</t>
-  </si>
-  <si>
-    <t>Large  Pepper 25# - USA</t>
-  </si>
-  <si>
-    <t>Jalapeno Pepper-Bushel-USA</t>
-  </si>
-  <si>
-    <t>Red Pepper 11# - CAN</t>
-  </si>
-  <si>
-    <t>7ct Pineapple - Costa Rico</t>
-  </si>
-  <si>
-    <t>Pomegranate -30 CT - usa</t>
-  </si>
-  <si>
-    <t>Chef Potato 50# - USA</t>
-  </si>
-  <si>
-    <t>50lb Red 'A' Potato - USA</t>
-  </si>
-  <si>
-    <t>10x5 lb. Russett Potato - USA</t>
-  </si>
-  <si>
-    <t>14x1lb.  Radish - USA</t>
-  </si>
-  <si>
-    <t>Yellow  Squash  - USA</t>
-  </si>
-  <si>
-    <t>Green Squash  - USA</t>
-  </si>
-  <si>
-    <t>8/1# Strawberry - USA</t>
-  </si>
-  <si>
-    <t>5X6 Tomato 25 lb. - USA</t>
-  </si>
-  <si>
-    <t>Grape Tomato - USA</t>
-  </si>
-  <si>
-    <t>ASP11</t>
-  </si>
-  <si>
-    <t>EGGPL24</t>
-  </si>
-  <si>
-    <t>GRAPEGREEN18</t>
-  </si>
-  <si>
-    <t>ORAN88</t>
-  </si>
-  <si>
-    <t>PARSN20</t>
-  </si>
-  <si>
-    <t>SWEETPOT40</t>
-  </si>
-  <si>
-    <t>TURNIP25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,25 +648,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -690,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -701,10 +689,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,16 +970,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1019,350 +1004,341 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>122</v>
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="G2" s="5">
-        <v>45830</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3">
-        <v>39.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>124</v>
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3">
-        <v>32.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>187</v>
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="D5" s="3">
-        <v>37.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>125</v>
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="D6" s="3">
-        <v>20.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D7" s="3">
-        <v>18.850000000000001</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>127</v>
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="D8" s="3">
-        <v>24.5</v>
-      </c>
-      <c r="E8">
-        <v>25.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D9" s="3">
-        <v>35.85</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="D10" s="3">
-        <v>45</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>130</v>
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D11" s="3">
-        <v>15</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>131</v>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="3">
-        <v>27.5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>132</v>
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3">
-        <v>28.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>133</v>
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D14" s="3">
-        <v>14</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>188</v>
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>187</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="D15" s="3">
-        <v>30</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>134</v>
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D16" s="3">
-        <v>22.5</v>
+        <v>16.850000000000001</v>
+      </c>
+      <c r="G16" s="5">
+        <v>45837</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>135</v>
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>163</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>189</v>
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>186</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D18" s="3">
-        <v>54</v>
+        <v>18.5</v>
       </c>
       <c r="E18">
-        <v>58</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>136</v>
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>167</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D19" s="3">
-        <v>38</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>137</v>
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3">
-        <v>32</v>
+        <v>18.850000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="3">
         <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="3">
-        <v>27.5</v>
-      </c>
-      <c r="E21">
-        <v>29.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>139</v>
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D22" s="3">
-        <v>22.5</v>
+        <v>19.850000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="3">
-        <v>30</v>
+        <v>124</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="D23" s="3">
-        <v>48</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>141</v>
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D24" s="3">
-        <v>34.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D25" s="3">
         <v>21.5</v>
@@ -1370,716 +1346,705 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>143</v>
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>166</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D26" s="3">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>144</v>
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>143</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D27" s="3">
-        <v>26.85</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>145</v>
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D28" s="3">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D29" s="3">
-        <v>32.85</v>
-      </c>
-      <c r="E29">
-        <v>34.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>147</v>
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="3">
-        <v>21.85</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
         <v>148</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="3">
-        <v>13.85</v>
+        <v>21.85</v>
+      </c>
+      <c r="E31">
+        <v>23.85</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="3">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="3">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="3">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D42" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="3">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="3">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="3">
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="3">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="E46">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D47" s="3">
         <v>26.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="3">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="3">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="3">
-        <v>17.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="3">
-        <v>21.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D48" s="3">
-        <v>22.5</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>165</v>
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D49" s="3">
-        <v>21.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>166</v>
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>189</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D50" s="3">
-        <v>18.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D51" s="3">
-        <v>24</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>168</v>
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>173</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D52" s="3">
-        <v>22.85</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>190</v>
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>174</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D53" s="3">
-        <v>42</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>131</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D54" s="3">
-        <v>25</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D55" s="3">
-        <v>58</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>170</v>
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>184</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D56" s="3">
-        <v>28.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>171</v>
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>133</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D57" s="3">
-        <v>28.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>56</v>
+      <c r="A58" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D58" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="E58">
-        <v>23.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>173</v>
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D59" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="E59">
-        <v>23.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>174</v>
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>147</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="D60" s="3">
-        <v>2.5</v>
+        <v>34.5</v>
+      </c>
+      <c r="E60">
+        <v>36.5</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>175</v>
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>142</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D61" s="3">
-        <v>19.850000000000001</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>176</v>
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D62" s="3">
-        <v>22.5</v>
+        <v>35.85</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>177</v>
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>157</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D63" s="3">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>178</v>
+        <v>37</v>
+      </c>
+      <c r="B64" t="s">
+        <v>156</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D64" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>179</v>
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>123</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="D65" s="3">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="3">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" s="3">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="3">
+        <v>30</v>
+      </c>
+      <c r="D71" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="3">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D67" s="3">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D68" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>182</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="3">
-        <v>17.5</v>
-      </c>
-      <c r="E69">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>183</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" s="3">
-        <v>15.5</v>
-      </c>
-      <c r="E70">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D71" s="3">
-        <v>20</v>
-      </c>
-      <c r="E71">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="C72" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D72" s="3">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>186</v>
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>136</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D73" s="3">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>193</v>
+        <v>53</v>
+      </c>
+      <c r="B74" t="s">
+        <v>172</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D74" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E74">
-    <sortCondition ref="A2:A74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G74">
+    <sortCondition ref="D2:D74"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
+++ b/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\IthacaBakery\RandomStuff\WorkBot\main\backend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9899941-9757-4BF3-BD0E-13F5B3E8786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ECB5EE-159B-424D-A760-6160353731DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -616,10 +625,10 @@
     <t>VPT</t>
   </si>
   <si>
+    <t>1 ea</t>
+  </si>
+  <si>
     <t>1 lb</t>
-  </si>
-  <si>
-    <t>1 ea</t>
   </si>
 </sst>
 </file>
@@ -678,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -689,7 +698,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,14 +982,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD79"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1006,7 +1016,7 @@
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>151</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1014,13 +1024,16 @@
       </c>
       <c r="D2" s="3">
         <v>0.75</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45871</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1034,7 +1047,7 @@
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1048,25 +1061,28 @@
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D5" s="3">
         <v>2.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
@@ -1076,7 +1092,7 @@
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1090,21 +1106,24 @@
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="3">
         <v>5.5</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1118,11 +1137,11 @@
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>154</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D10" s="3">
         <v>12.5</v>
@@ -1132,7 +1151,7 @@
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1146,7 +1165,7 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1158,187 +1177,190 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>129</v>
+        <v>68</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3">
-        <v>15</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" t="s">
-        <v>190</v>
+        <v>0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3">
-        <v>16.5</v>
+        <v>16.850000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>187</v>
+        <v>44</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D15" s="3">
-        <v>16.5</v>
+        <v>17.25</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>120</v>
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="G16" s="5">
-        <v>45837</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>163</v>
+        <v>67</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3">
-        <v>17.25</v>
+        <v>18.5</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" t="s">
-        <v>186</v>
+        <v>48</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3">
         <v>18.5</v>
       </c>
-      <c r="E18">
-        <v>21.5</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>167</v>
+        <v>5</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="3">
-        <v>18.5</v>
+        <v>18.850000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D20" s="3">
-        <v>18.850000000000001</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>181</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D21" s="3">
-        <v>19</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>178</v>
+        <v>43</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D22" s="3">
-        <v>19.850000000000001</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>124</v>
+        <v>71</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D23" s="3">
-        <v>20.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>162</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D24" s="3">
-        <v>21</v>
+        <v>21.5</v>
+      </c>
+      <c r="E24">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>158</v>
+        <v>41</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D25" s="3">
         <v>21.5</v>
@@ -1346,13 +1368,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>166</v>
+        <v>69</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D26" s="3">
         <v>21.5</v>
@@ -1360,86 +1382,83 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>143</v>
+        <v>45</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D27" s="3">
-        <v>21.5</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>160</v>
+        <v>46</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D28" s="3">
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" t="s">
-        <v>188</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D29" s="3">
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>164</v>
+        <v>24</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D30" s="3">
-        <v>21.75</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>148</v>
+        <v>20</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D31" s="3">
-        <v>21.85</v>
-      </c>
-      <c r="E31">
-        <v>23.85</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>165</v>
+        <v>64</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D32" s="3">
         <v>22.5</v>
@@ -1447,13 +1466,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>146</v>
+        <v>60</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D33" s="3">
         <v>22.5</v>
@@ -1461,282 +1480,291 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" t="s">
-        <v>144</v>
+        <v>50</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D34" s="3">
-        <v>22.5</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" t="s">
-        <v>140</v>
+        <v>28</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D35" s="3">
-        <v>22.5</v>
+        <v>23.85</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>134</v>
+        <v>59</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D36" s="3">
-        <v>22.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" t="s">
-        <v>183</v>
+        <v>47</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D37" s="3">
-        <v>22.5</v>
+        <v>24</v>
+      </c>
+      <c r="E37">
+        <v>21.85</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" t="s">
-        <v>179</v>
+        <v>30</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D38" s="3">
-        <v>22.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>169</v>
+        <v>14</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D39" s="3">
-        <v>22.85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>56</v>
+      <c r="A40" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D40" s="3">
-        <v>23.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" t="s">
-        <v>176</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D41" s="3">
-        <v>23.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" t="s">
-        <v>150</v>
+        <v>52</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D42" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>168</v>
+        <v>113</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D43" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" t="s">
-        <v>171</v>
+        <v>13</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D44" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" t="s">
-        <v>191</v>
+        <v>6</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D45" s="3">
-        <v>25</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" t="s">
-        <v>126</v>
+        <v>25</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D46" s="3">
-        <v>25.5</v>
-      </c>
-      <c r="E46">
-        <v>27.5</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" t="s">
-        <v>159</v>
+        <v>27</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D47" s="3">
-        <v>26.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" t="s">
-        <v>145</v>
+        <v>63</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D48" s="3">
-        <v>26.85</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" t="s">
-        <v>130</v>
+        <v>54</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D49" s="3">
-        <v>27.5</v>
+        <v>28.5</v>
+      </c>
+      <c r="E49">
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" t="s">
-        <v>189</v>
+        <v>55</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D50" s="3">
-        <v>27.5</v>
+        <v>28.5</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" t="s">
-        <v>182</v>
+        <v>70</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D51" s="3">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>173</v>
+        <v>11</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D52" s="3">
         <v>28.5</v>
       </c>
+      <c r="E52">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>174</v>
+        <v>62</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D53" s="3">
         <v>28.5</v>
@@ -1744,23 +1772,23 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" t="s">
-        <v>131</v>
+        <v>10</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="3">
-        <v>28.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -1774,7 +1802,7 @@
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>184</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -1786,100 +1814,97 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>133</v>
+        <v>18</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D57" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" t="s">
-        <v>138</v>
+        <v>2</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D58" s="3">
-        <v>32</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" t="s">
-        <v>122</v>
+        <v>22</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D59" s="3">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" t="s">
-        <v>147</v>
+        <v>7</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D60" s="3">
-        <v>34.5</v>
-      </c>
-      <c r="E60">
-        <v>36.5</v>
+        <v>35.85</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" t="s">
-        <v>142</v>
+        <v>37</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D61" s="3">
-        <v>34.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>127</v>
+      <c r="A62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D62" s="3">
-        <v>35.85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" t="s">
-        <v>157</v>
+        <v>57</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D63" s="3">
         <v>36</v>
@@ -1887,68 +1912,65 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" t="s">
-        <v>156</v>
+        <v>3</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D64" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D65" s="3">
-        <v>37.5</v>
-      </c>
-      <c r="F65" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>137</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D66" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
-        <v>121</v>
+        <v>16</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D67" s="3">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -1958,11 +1980,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="6" t="s">
         <v>155</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -1972,25 +1994,28 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" t="s">
-        <v>128</v>
+        <v>38</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D70" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42.5</v>
+      </c>
+      <c r="E70">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="6" t="s">
         <v>141</v>
       </c>
       <c r="C71" s="3">
@@ -1999,51 +2024,54 @@
       <c r="D71" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D74" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" s="3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" t="s">
-        <v>172</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D74" s="3">
-        <v>58</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G74">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D74">
     <sortCondition ref="D2:D74"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
+++ b/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\IthacaBakery\RandomStuff\WorkBot\main\backend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ECB5EE-159B-424D-A760-6160353731DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923B64B1-A772-4404-B10C-AA2B5F0C6DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="196">
   <si>
     <t>Alfalfa Sprouts</t>
   </si>
@@ -625,10 +625,16 @@
     <t>VPT</t>
   </si>
   <si>
+    <t>SKU</t>
+  </si>
+  <si>
     <t>1 ea</t>
   </si>
   <si>
     <t>1 lb</t>
+  </si>
+  <si>
+    <t>1bu</t>
   </si>
 </sst>
 </file>
@@ -687,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -698,8 +704,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +1003,9 @@
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>73</v>
       </c>
@@ -1014,27 +1021,27 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="3">
+        <v>30</v>
       </c>
       <c r="D2" s="3">
-        <v>0.75</v>
+        <v>48</v>
       </c>
       <c r="G2" s="5">
-        <v>45871</v>
+        <v>45885</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>153</v>
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>99</v>
@@ -1047,7 +1054,7 @@
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1059,876 +1066,864 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>177</v>
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="D5" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>135</v>
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>152</v>
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D7" s="3">
-        <v>3.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>161</v>
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>174</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="D8" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E8">
-        <v>24</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>149</v>
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D9" s="3">
-        <v>12.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>154</v>
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3">
-        <v>12.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>149</v>
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3">
-        <v>13.85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D12" s="3">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>187</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>16.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>120</v>
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
-        <v>16.850000000000001</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>163</v>
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3">
-        <v>17.25</v>
-      </c>
-      <c r="E15">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>129</v>
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>156</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D16" s="3">
-        <v>17.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>186</v>
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D17" s="3">
-        <v>18.5</v>
+        <v>28.5</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>167</v>
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D18" s="3">
-        <v>18.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>125</v>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D19" s="3">
-        <v>18.850000000000001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>158</v>
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D20" s="3">
-        <v>19.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D21" s="3">
-        <v>20.5</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>162</v>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D22" s="3">
-        <v>21</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>190</v>
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>187</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D23" s="3">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>143</v>
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>186</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D24" s="3">
-        <v>21.5</v>
-      </c>
-      <c r="E24">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>160</v>
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D25" s="3">
-        <v>21.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>188</v>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>171</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D26" s="3">
-        <v>21.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>164</v>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D27" s="3">
-        <v>21.75</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>165</v>
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D28" s="3">
-        <v>22.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>146</v>
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D29" s="3">
-        <v>22.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>144</v>
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>167</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D30" s="3">
-        <v>22.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>140</v>
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D31" s="3">
-        <v>22.5</v>
+        <v>18.850000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>64</v>
+      <c r="A32" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3">
         <v>22.5</v>
       </c>
+      <c r="E32">
+        <v>21</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>179</v>
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>176</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D33" s="3">
         <v>22.5</v>
       </c>
+      <c r="E33">
+        <v>21</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>169</v>
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>189</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D34" s="3">
-        <v>22.85</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>148</v>
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D35" s="3">
-        <v>23.85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>178</v>
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>191</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D36" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>166</v>
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D37" s="3">
-        <v>24</v>
-      </c>
-      <c r="E37">
-        <v>21.85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>150</v>
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="3">
-        <v>24</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>134</v>
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>149</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D39" s="3">
-        <v>24</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>168</v>
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D40" s="3">
-        <v>24</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>159</v>
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D41" s="3">
-        <v>24</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>171</v>
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>180</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D42" s="3">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>191</v>
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>142</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D43" s="3">
-        <v>25</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>133</v>
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D44" s="3">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <v>16.5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>126</v>
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D45" s="3">
-        <v>26.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>145</v>
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>166</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D46" s="3">
-        <v>26.85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>147</v>
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D47" s="3">
-        <v>27.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="3">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="3">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="3">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="3">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B59" t="s">
         <v>182</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D59" s="3">
         <v>27.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="3">
-        <v>28.5</v>
-      </c>
-      <c r="E49">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="3">
-        <v>28.5</v>
-      </c>
-      <c r="E50">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="3">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="3">
-        <v>28.5</v>
-      </c>
-      <c r="E52">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="3">
+        <v>16.850000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="3">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="3">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="3">
+        <v>35.85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="3">
         <v>22.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="3">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="3">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="3">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="3">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="3">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" s="3">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="3">
-        <v>35.85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D64" s="3">
-        <v>37.5</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" t="s">
         <v>121</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -1940,27 +1935,30 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>137</v>
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>188</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D66" s="3">
-        <v>40</v>
+        <v>21.5</v>
+      </c>
+      <c r="E66">
+        <v>22.5</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>136</v>
+        <v>51</v>
+      </c>
+      <c r="B67" t="s">
+        <v>170</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D67" s="3">
         <v>42</v>
@@ -1968,111 +1966,108 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>170</v>
+        <v>40</v>
+      </c>
+      <c r="B68" t="s">
+        <v>159</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D68" s="3">
-        <v>42</v>
+        <v>22.5</v>
+      </c>
+      <c r="E68">
+        <v>23.5</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>155</v>
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>153</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D69" s="3">
-        <v>42.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>157</v>
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>152</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="D70" s="3">
-        <v>42.5</v>
-      </c>
-      <c r="E70">
-        <v>26</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="3">
-        <v>30</v>
+        <v>58</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D71" s="3">
-        <v>48</v>
-      </c>
-      <c r="E71">
-        <v>26</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>128</v>
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="D72" s="3">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>172</v>
+        <v>35</v>
+      </c>
+      <c r="B73" t="s">
+        <v>154</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="D73" s="3">
-        <v>52</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>180</v>
+        <v>42</v>
+      </c>
+      <c r="B74" t="s">
+        <v>161</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="D74" s="3">
-        <v>55</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D74">
-    <sortCondition ref="D2:D74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F89">
+    <sortCondition ref="C2:C89"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
+++ b/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\IthacaBakery\RandomStuff\WorkBot\main\backend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923B64B1-A772-4404-B10C-AA2B5F0C6DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291B254-5871-4ACA-A323-0E3CFFFA3F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="195">
   <si>
     <t>Alfalfa Sprouts</t>
   </si>
@@ -628,13 +628,10 @@
     <t>SKU</t>
   </si>
   <si>
+    <t>1 lb</t>
+  </si>
+  <si>
     <t>1 ea</t>
-  </si>
-  <si>
-    <t>1 lb</t>
-  </si>
-  <si>
-    <t>1bu</t>
   </si>
 </sst>
 </file>
@@ -693,10 +690,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,7 +700,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,1090 +991,1103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="3">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3">
-        <v>48</v>
-      </c>
-      <c r="G2" s="5">
-        <v>45885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="3">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="3">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="3">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="3">
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="2">
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="3">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="2">
+        <v>16.850000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="3">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="3">
-        <v>36</v>
+      <c r="D16" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="3">
-        <v>28.5</v>
+        <v>67</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2">
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>29.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="3">
-        <v>22.5</v>
+        <v>44</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17.25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="3">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="3">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="3">
-        <v>26.85</v>
+        <v>5</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18.850000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="3">
-        <v>29.5</v>
+        <v>4</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="3">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="3">
-        <v>17</v>
+      <c r="A24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>19.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="3">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="2">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>19.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="3">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="2">
+        <v>21.5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="3">
-        <v>22.5</v>
+        <v>41</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="2">
+        <v>21.5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="3">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="2">
+        <v>21.75</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="3">
-        <v>18.5</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="2">
+        <v>21.85</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="3">
-        <v>18.5</v>
+        <v>46</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="2">
+        <v>22.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="3">
-        <v>18.850000000000001</v>
+        <v>26</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="2">
+        <v>22.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="2">
         <v>22.5</v>
-      </c>
-      <c r="E32">
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="3">
+        <v>20</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="2">
         <v>22.5</v>
       </c>
-      <c r="E33">
-        <v>21</v>
-      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="3">
-        <v>28.5</v>
+      <c r="A34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="2">
+        <v>22.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="3">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="2">
+        <v>22.85</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="3">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="2">
+        <v>23.5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="3">
-        <v>26</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="3">
-        <v>12.5</v>
+        <v>6</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="2">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>25.5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="3">
-        <v>13.85</v>
+        <v>13</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="3">
-        <v>21.75</v>
+        <v>47</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="3">
-        <v>28.5</v>
+        <v>30</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="3">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="3">
-        <v>34.5</v>
+        <v>49</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="3">
-        <v>18</v>
-      </c>
-      <c r="E44">
-        <v>16.5</v>
+        <v>69</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="3">
-        <v>22.5</v>
+        <v>60</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="E45">
+        <v>27.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="3">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="3">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="3">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="2">
+        <v>25</v>
+      </c>
+      <c r="E49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="2">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="E52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="2">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="2">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="E55">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="2">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="2">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="3">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" t="s">
-        <v>184</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="D58" s="2">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" s="3">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" t="s">
-        <v>163</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="3">
-        <v>17.25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" t="s">
-        <v>183</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="3">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="3">
-        <v>22.85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" t="s">
-        <v>181</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="3">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="2">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="3">
-        <v>16.850000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="2">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="3">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="2">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="3">
-        <v>21.85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="2">
+        <v>35.85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="3">
-        <v>35.85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D64" s="3">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="2">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="3">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" s="3">
-        <v>21.5</v>
-      </c>
-      <c r="E66">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" s="3">
-        <v>22.5</v>
-      </c>
-      <c r="E68">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="2">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="2">
+        <v>30</v>
+      </c>
+      <c r="D70" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D71" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D72" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73" t="s">
-        <v>154</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D73" s="3">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B74" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D74" s="3">
-        <v>5.5</v>
+        <v>61</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F89">
-    <sortCondition ref="C2:C89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E76">
+    <sortCondition ref="D2:D76"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
+++ b/WorkBot/main/backend/downloads/Russo Produce_IBProduce - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\IthacaBakery\RandomStuff\WorkBot\main\backend\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291B254-5871-4ACA-A323-0E3CFFFA3F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2900E51A-A846-4EF3-83FD-DD4F2D2A1C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="198">
   <si>
     <t>Alfalfa Sprouts</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Carrots (25 lb)</t>
+  </si>
+  <si>
+    <t>Carrots (50 lb)</t>
   </si>
   <si>
     <t>Cauliflower</t>
@@ -439,6 +442,9 @@
     <t>VCAR25US</t>
   </si>
   <si>
+    <t>VCAR50</t>
+  </si>
+  <si>
     <t>VFLOW12</t>
   </si>
   <si>
@@ -628,10 +634,13 @@
     <t>SKU</t>
   </si>
   <si>
+    <t>1 ea</t>
+  </si>
+  <si>
     <t>1 lb</t>
   </si>
   <si>
-    <t>1 ea</t>
+    <t>1lb</t>
   </si>
 </sst>
 </file>
@@ -690,9 +699,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,17 +710,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,315 +992,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>76</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="2">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.75</v>
       </c>
-      <c r="F2" s="4">
-        <v>45899</v>
+      <c r="F2" s="5">
+        <v>45906</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="2">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
         <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="2">
+        <v>67</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="3">
         <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="2">
+        <v>59</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="3">
         <v>2.5</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="2">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="2">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="2">
+        <v>43</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="3">
         <v>5.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="2">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="3">
         <v>12.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="2">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="3">
         <v>12.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="2">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="3">
         <v>13.85</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="2">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="3">
+        <v>16.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="2">
-        <v>16.5</v>
+        <v>0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3">
+        <v>16.850000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="2">
-        <v>16.850000000000001</v>
+        <v>72</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="2">
+        <v>69</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="3">
         <v>17</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="2">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="3">
+        <v>17.25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="2">
-        <v>17.25</v>
+        <v>68</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="3">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>19.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="3">
         <v>18.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="2">
+        <v>49</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="3">
         <v>18.5</v>
       </c>
     </row>
@@ -1307,569 +1308,551 @@
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="3">
         <v>18.850000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="2">
-        <v>20.5</v>
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="3">
+        <v>19.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="2">
-        <v>21</v>
+        <v>58</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="3">
+        <v>19.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="2">
-        <v>21</v>
-      </c>
-      <c r="E24">
-        <v>19.5</v>
+      <c r="D24" s="3">
+        <v>20.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="2">
+        <v>44</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="3">
         <v>21</v>
-      </c>
-      <c r="E25">
-        <v>19.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="2">
-        <v>21.5</v>
+        <v>63</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="2">
-        <v>21.5</v>
+        <v>64</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="2">
-        <v>21.75</v>
+        <v>24</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="3">
+        <v>21.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="2">
-        <v>21.85</v>
+        <v>42</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="3">
+        <v>21.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="2">
-        <v>22.5</v>
+      <c r="B30" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="3">
+        <v>21.75</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="2">
-        <v>22.5</v>
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="3">
+        <v>21.85</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="2">
+        <v>47</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="3">
         <v>22.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="2">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="3">
         <v>22.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="3">
         <v>22.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="2">
-        <v>22.85</v>
+        <v>21</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="3">
+        <v>22.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="2">
-        <v>23.5</v>
+        <v>65</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="3">
+        <v>22.5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="2">
-        <v>24</v>
+        <v>51</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="3">
+        <v>22.85</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="2">
-        <v>24</v>
-      </c>
-      <c r="E38">
-        <v>25.5</v>
+        <v>41</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="3">
+        <v>23.5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="2">
+        <v>60</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="2">
+        <v>14</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="2">
+        <v>48</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="2">
+        <v>31</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="2">
+        <v>15</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="2">
+        <v>50</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="2">
-        <v>24.5</v>
-      </c>
-      <c r="E45">
-        <v>27.5</v>
+        <v>70</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="2">
+        <v>11</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="3">
         <v>25</v>
+      </c>
+      <c r="E46">
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="2">
+        <v>53</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="2">
+        <v>114</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="2">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="3">
+        <v>25.5</v>
       </c>
       <c r="E49">
-        <v>21</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D50" s="2">
+        <v>19</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="2">
+        <v>26</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="3">
         <v>26.85</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="2">
+        <v>61</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="3">
         <v>27.5</v>
-      </c>
-      <c r="E52">
-        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="2">
+        <v>55</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="3">
         <v>28.5</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" s="2">
+        <v>56</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="3">
         <v>28.5</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D55" s="2">
+        <v>12</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="3">
         <v>28.5</v>
-      </c>
-      <c r="E55">
-        <v>29.5</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="2">
-        <v>28.5</v>
+        <v>20</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="3">
+        <v>29.5</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="2">
+        <v>71</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="3">
         <v>29.5</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="2">
-        <v>29.5</v>
-      </c>
-      <c r="E58">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="2">
+        <v>28</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="3">
         <v>32.5</v>
       </c>
     </row>
@@ -1877,215 +1860,235 @@
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="2">
+      <c r="B60" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="3">
         <v>32.5</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="2">
-        <v>34.5</v>
+        <v>66</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="3">
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="2">
-        <v>35.85</v>
+        <v>23</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="3">
+        <v>34.5</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" s="2">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="3">
+        <v>35.85</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="B65" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="3">
         <v>39.5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="3">
+        <v>40</v>
+      </c>
+      <c r="E66">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="B67" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="E67">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="3">
         <v>42.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" s="2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" s="2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="3">
         <v>30</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D71" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="B72" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D72" s="2">
+      <c r="B73" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73" s="2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" s="2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="3">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E76">
-    <sortCondition ref="D2:D76"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E84">
+    <sortCondition ref="D2:D84"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
